--- a/Dados/Ativos_Sem_Codigo.xlsx
+++ b/Dados/Ativos_Sem_Codigo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Sub Classe</t>
   </si>
@@ -34,37 +34,13 @@
     <t>COD_XP</t>
   </si>
   <si>
-    <t>LFSN</t>
-  </si>
-  <si>
-    <t>CDB</t>
-  </si>
-  <si>
-    <t>LFSN1800DIG</t>
-  </si>
-  <si>
-    <t>CDB725BEF4D</t>
-  </si>
-  <si>
-    <t>CDB725BEF4B</t>
-  </si>
-  <si>
-    <t>CDB725BEF4E</t>
-  </si>
-  <si>
-    <t>CDB725BEF4C</t>
+    <t>Debêntures</t>
+  </si>
+  <si>
+    <t>HAPV21</t>
   </si>
   <si>
     <t>FIRF GERAES</t>
-  </si>
-  <si>
-    <t>BMG SEG</t>
-  </si>
-  <si>
-    <t>FIRF GERAES 30</t>
-  </si>
-  <si>
-    <t>HORIZONTE</t>
   </si>
 </sst>
 </file>
@@ -426,7 +402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -457,69 +433,13 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2">
+        <v>46213</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" s="2">
-        <v>46237</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2">
-        <v>45941</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2">
-        <v>45941</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2">
-        <v>45941</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2">
-        <v>45941</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Dados/Ativos_Sem_Codigo.xlsx
+++ b/Dados/Ativos_Sem_Codigo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Sub Classe</t>
   </si>
@@ -34,13 +34,16 @@
     <t>COD_XP</t>
   </si>
   <si>
-    <t>Debêntures</t>
-  </si>
-  <si>
-    <t>HAPV21</t>
-  </si>
-  <si>
-    <t>FIRF GERAES</t>
+    <t>CDB</t>
+  </si>
+  <si>
+    <t>CDB424EERW3</t>
+  </si>
+  <si>
+    <t>CDB3239C4TL</t>
+  </si>
+  <si>
+    <t>BBRASIL FIM</t>
   </si>
 </sst>
 </file>
@@ -402,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -436,10 +439,24 @@
         <v>7</v>
       </c>
       <c r="C2" s="2">
-        <v>46213</v>
+        <v>46146</v>
       </c>
       <c r="D2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
+      </c>
+      <c r="C3" s="2">
+        <v>46223</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
